--- a/PCAcombined_predicted_variables_matrix_6.xlsx
+++ b/PCAcombined_predicted_variables_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:B96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,31 +440,13 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0.5358012755436014</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5358128605789055</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.5358153358601743</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.5358214337426468</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.5358253713746365</v>
+        <v>0.5358275924482448</v>
       </c>
     </row>
     <row r="3">
@@ -472,16 +454,7 @@
         <v>0.5360724582791886</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5361093780278202</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.5361127344948866</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.536113391991164</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.5361131930428803</v>
+        <v>0.5361150179884303</v>
       </c>
     </row>
     <row r="4">
@@ -489,16 +462,7 @@
         <v>0.5361051056960365</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5361407335512757</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.5361313438767464</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.5361249714347535</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.5361205137949585</v>
+        <v>0.5361249845537117</v>
       </c>
     </row>
     <row r="5">
@@ -506,16 +470,7 @@
         <v>0.5358882845748147</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5359373753219446</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.5359366245886643</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.5359352721885137</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.5359339493701346</v>
+        <v>0.5359329851306901</v>
       </c>
     </row>
     <row r="6">
@@ -523,16 +478,7 @@
         <v>0.5360934808144679</v>
       </c>
       <c r="B6" t="n">
-        <v>0.536067600857313</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.5360872398730792</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5360918836859359</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.5360931777105485</v>
+        <v>0.5360817435313283</v>
       </c>
     </row>
     <row r="7">
@@ -540,16 +486,7 @@
         <v>0.5357295386726875</v>
       </c>
       <c r="B7" t="n">
-        <v>0.535721704293479</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.5357270891685534</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.5357308770118498</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.5357324466601658</v>
+        <v>0.5357660447440977</v>
       </c>
     </row>
     <row r="8">
@@ -557,16 +494,7 @@
         <v>0.5359561303552174</v>
       </c>
       <c r="B8" t="n">
-        <v>0.535943572077917</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5359239540924148</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.5359115464985806</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.5359034059654413</v>
+        <v>0.5359352806342531</v>
       </c>
     </row>
     <row r="9">
@@ -574,16 +502,7 @@
         <v>0.5357750250809092</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5357856884813703</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5357796067561159</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.5357764683863707</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.5357739030937252</v>
+        <v>0.5358168818934209</v>
       </c>
     </row>
     <row r="10">
@@ -591,16 +510,7 @@
         <v>0.5362007203080423</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5362118768400127</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5362072865596281</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.536204064734789</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.5362018851923362</v>
+        <v>0.5362500883400989</v>
       </c>
     </row>
     <row r="11">
@@ -608,16 +518,7 @@
         <v>0.5358245326601513</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5358588629553864</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5358604406195656</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.5358598470984578</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.5358585688225416</v>
+        <v>0.5358761725005835</v>
       </c>
     </row>
     <row r="12">
@@ -625,16 +526,7 @@
         <v>0.5358325417834692</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5359134031000981</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5359139570080079</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.5359122915271896</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.53591063689569</v>
+        <v>0.5359164179006936</v>
       </c>
     </row>
     <row r="13">
@@ -642,16 +534,7 @@
         <v>0.5359310836765542</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5359450168394155</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5359445751231204</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.5359409440055591</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.535937992090083</v>
+        <v>0.5359787617394612</v>
       </c>
     </row>
     <row r="14">
@@ -659,16 +542,7 @@
         <v>0.5358892651258919</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5359847067060777</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.5359915526912196</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.535988849892703</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.5359858873650192</v>
+        <v>0.5359958617491806</v>
       </c>
     </row>
     <row r="15">
@@ -676,16 +550,7 @@
         <v>0.5357706284886133</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5358718372603054</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.5358696359749754</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.5358678409999011</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.5358671478491711</v>
+        <v>0.5359137089064646</v>
       </c>
     </row>
     <row r="16">
@@ -693,16 +558,7 @@
         <v>0.5360620275345244</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5361515687735305</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.5361392843373489</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.5361306549743654</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.5361254668726669</v>
+        <v>0.5361724783884037</v>
       </c>
     </row>
     <row r="17">
@@ -710,16 +566,7 @@
         <v>0.5360597589457654</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5361556216767792</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.5361657201684612</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.5361749071734438</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.5361811934719306</v>
+        <v>0.5361887471147611</v>
       </c>
     </row>
     <row r="18">
@@ -727,16 +574,7 @@
         <v>0.5357304360000865</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5358202482403556</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.5358251017400487</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.535830571812287</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.5358347948173459</v>
+        <v>0.5358705019832982</v>
       </c>
     </row>
     <row r="19">
@@ -744,16 +582,7 @@
         <v>0.5359953192636594</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5360855496014154</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.5361084247366416</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.5361149239557691</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.5361173238868279</v>
+        <v>0.5361547656884866</v>
       </c>
     </row>
     <row r="20">
@@ -761,16 +590,7 @@
         <v>0.5360671430929307</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5361042415575605</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.5360854606417405</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.5360748281270885</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.5360688695988698</v>
+        <v>0.5361016795821112</v>
       </c>
     </row>
     <row r="21">
@@ -778,16 +598,7 @@
         <v>0.5362191251801059</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5362842616470149</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.5362741133388048</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.5362638062101112</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.5362571925156193</v>
+        <v>0.5362771420588576</v>
       </c>
     </row>
     <row r="22">
@@ -795,16 +606,7 @@
         <v>0.536043603063373</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5360960476624814</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.5361039913619156</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.5361043731822086</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.5361039227675547</v>
+        <v>0.5361121196775841</v>
       </c>
     </row>
     <row r="23">
@@ -812,16 +614,7 @@
         <v>0.5357810061623993</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5358542986497903</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.5358573119492321</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.5358544814259626</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.5358522667860007</v>
+        <v>0.5358530033913906</v>
       </c>
     </row>
     <row r="24">
@@ -829,16 +622,7 @@
         <v>0.5358059761459582</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5369294631987218</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.5367831678939593</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.5367287786938222</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.5367146156522741</v>
+        <v>0.5363544105530792</v>
       </c>
     </row>
     <row r="25">
@@ -846,16 +630,7 @@
         <v>0.536228022028416</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5361696001995462</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.5361595307279553</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.536162707375301</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.5361686152208841</v>
+        <v>0.53618310807815</v>
       </c>
     </row>
     <row r="26">
@@ -863,16 +638,7 @@
         <v>0.5359414285266272</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5360636893670443</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.5360570399623299</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.536053940679401</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.536055454262911</v>
+        <v>0.5359877763167327</v>
       </c>
     </row>
     <row r="27">
@@ -880,16 +646,7 @@
         <v>0.536032747655494</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5359488517173918</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.535959835913097</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.5359753096710602</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.5359889464079872</v>
+        <v>0.535974860618901</v>
       </c>
     </row>
     <row r="28">
@@ -897,16 +654,7 @@
         <v>0.5363658134964552</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5364633016930405</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.5364469739997054</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.5364537473998149</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.5364643609970249</v>
+        <v>0.5363973586223594</v>
       </c>
     </row>
     <row r="29">
@@ -914,16 +662,7 @@
         <v>0.535739038908125</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5365009355817917</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.5365950927473653</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.5366789375384632</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.5367428306358385</v>
+        <v>0.5366698004937012</v>
       </c>
     </row>
     <row r="30">
@@ -931,16 +670,7 @@
         <v>0.5362558013886329</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5362802155730984</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.536291619746544</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.5363140046527898</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.536333408732462</v>
+        <v>0.5363273536006191</v>
       </c>
     </row>
     <row r="31">
@@ -948,16 +678,7 @@
         <v>0.5357565019601753</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5356311318792185</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.5356672981511486</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.5356906407046316</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.5357069886163186</v>
+        <v>0.5357282149125349</v>
       </c>
     </row>
     <row r="32">
@@ -965,16 +686,7 @@
         <v>0.5363567492596759</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5362687037742686</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.5362804720767643</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.5362933420942333</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.5363040053515198</v>
+        <v>0.536328062817478</v>
       </c>
     </row>
     <row r="33">
@@ -982,16 +694,7 @@
         <v>0.5364189608631089</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5363832980305028</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.5363954321427178</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.536405936431113</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.5364143087419641</v>
+        <v>0.5364598749404829</v>
       </c>
     </row>
     <row r="34">
@@ -999,16 +702,7 @@
         <v>0.5355315614416288</v>
       </c>
       <c r="B34" t="n">
-        <v>0.535492399317735</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.5354712870770835</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.5354715714598284</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.5354759061101307</v>
+        <v>0.5354985876200913</v>
       </c>
     </row>
     <row r="35">
@@ -1016,16 +710,7 @@
         <v>0.5364562752071109</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5364699772633259</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.5364686039995831</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.5364686660887648</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.5364689219199659</v>
+        <v>0.5364716700193404</v>
       </c>
     </row>
     <row r="36">
@@ -1033,16 +718,7 @@
         <v>0.5364795587117496</v>
       </c>
       <c r="B36" t="n">
-        <v>0.536450345260677</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.536449291079756</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.5364506937565133</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.5364519323410543</v>
+        <v>0.5364701419428349</v>
       </c>
     </row>
     <row r="37">
@@ -1050,16 +726,7 @@
         <v>0.536477564595897</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5364787582590782</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.5364558420697084</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.5364452268792309</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.5364394370205843</v>
+        <v>0.5364640914837284</v>
       </c>
     </row>
     <row r="38">
@@ -1067,16 +734,7 @@
         <v>0.5363673197214343</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5363357464921353</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.5363503066874059</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.5363591615741709</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.5363643236847508</v>
+        <v>0.5363772473780042</v>
       </c>
     </row>
     <row r="39">
@@ -1084,16 +742,7 @@
         <v>0.536386141555823</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5363669493281463</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.5363564507906045</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.536351295733682</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.5363483492687716</v>
+        <v>0.5363788503319821</v>
       </c>
     </row>
     <row r="40">
@@ -1101,16 +750,7 @@
         <v>0.5364969650022854</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5364743955604254</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.5364633327855786</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.5364563563374983</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.5364520538636955</v>
+        <v>0.5364749562479464</v>
       </c>
     </row>
     <row r="41">
@@ -1118,16 +758,7 @@
         <v>0.5363229980807241</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5363247535068375</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.5363218051975055</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.5363213226263598</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.5363212724631473</v>
+        <v>0.536323675873941</v>
       </c>
     </row>
     <row r="42">
@@ -1135,16 +766,7 @@
         <v>0.5363400254171301</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5363515629331845</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.5363513529029575</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.5363543133399042</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.5363566142669781</v>
+        <v>0.5363827079831571</v>
       </c>
     </row>
     <row r="43">
@@ -1152,16 +774,7 @@
         <v>0.5363952890305936</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5363864164563542</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.5363846588010739</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.5363853180079687</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.5363859547699197</v>
+        <v>0.5364058112598739</v>
       </c>
     </row>
     <row r="44">
@@ -1169,16 +782,7 @@
         <v>0.5363978937973162</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5364091945150011</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.5364002627078095</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.5363969771580911</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.5363954410710685</v>
+        <v>0.5364322423189128</v>
       </c>
     </row>
     <row r="45">
@@ -1186,16 +790,7 @@
         <v>0.5364892225953249</v>
       </c>
       <c r="B45" t="n">
-        <v>0.536452148810461</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.5364325713533655</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.5364245215422402</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.5364202444133517</v>
+        <v>0.5364695818813708</v>
       </c>
     </row>
     <row r="46">
@@ -1203,16 +798,7 @@
         <v>0.5351638793555809</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5351937865376712</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.5351818261135374</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.5351749355276071</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.5351700757295245</v>
+        <v>0.5352504340253695</v>
       </c>
     </row>
     <row r="47">
@@ -1220,16 +806,7 @@
         <v>0.5353424843710747</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5353563641730635</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.5353511770836215</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.5353480626120483</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.5353454249240815</v>
+        <v>0.5354209888858924</v>
       </c>
     </row>
     <row r="48">
@@ -1237,16 +814,7 @@
         <v>0.5354350593855864</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5354406168810897</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.5354384256457472</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.5354358982256827</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.5354332004787465</v>
+        <v>0.5355069414979653</v>
       </c>
     </row>
     <row r="49">
@@ -1254,16 +822,7 @@
         <v>0.5355698200409585</v>
       </c>
       <c r="B49" t="n">
-        <v>0.535588747191039</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.5355839248566947</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.5355801003653646</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.5355768552708657</v>
+        <v>0.5356370547568005</v>
       </c>
     </row>
     <row r="50">
@@ -1271,16 +830,7 @@
         <v>0.5358843431532158</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5359167591258551</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.5359162729857002</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.5359154439375633</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.535914625198556</v>
+        <v>0.5359630740994846</v>
       </c>
     </row>
     <row r="51">
@@ -1288,16 +838,7 @@
         <v>0.5354702106428456</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5354797331991135</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.5354678820035672</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.5354615484909089</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.5354570887023021</v>
+        <v>0.5355137074597708</v>
       </c>
     </row>
     <row r="52">
@@ -1305,16 +846,7 @@
         <v>0.5354702106428456</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5354797331991135</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.5354678820035672</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.5354615484909089</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.5354570887023021</v>
+        <v>0.5355137074597708</v>
       </c>
     </row>
     <row r="53">
@@ -1322,16 +854,7 @@
         <v>0.5352732047473884</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5352702321740659</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.5352697277495185</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.535269503735855</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.5352682854744918</v>
+        <v>0.5353575905907345</v>
       </c>
     </row>
     <row r="54">
@@ -1339,16 +862,7 @@
         <v>0.5358525810970289</v>
       </c>
       <c r="B54" t="n">
-        <v>0.535870356749954</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.5358656362496905</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.535862098114265</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.5358593582183259</v>
+        <v>0.5359092971685701</v>
       </c>
     </row>
     <row r="55">
@@ -1356,16 +870,7 @@
         <v>0.535339521626886</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5353306864017681</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.5353343999905203</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.5353338613787791</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.5353321455557148</v>
+        <v>0.5354078132044959</v>
       </c>
     </row>
     <row r="56">
@@ -1373,16 +878,7 @@
         <v>0.5353901351588776</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5354337315929198</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.5354214440862398</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.5354126003483786</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.535406723248402</v>
+        <v>0.5354700399779958</v>
       </c>
     </row>
     <row r="57">
@@ -1390,16 +886,7 @@
         <v>0.5353391027822909</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5353675316866163</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.5353602875150777</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.5353562069080492</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.5353533142647875</v>
+        <v>0.5354454454949005</v>
       </c>
     </row>
     <row r="58">
@@ -1407,16 +894,7 @@
         <v>0.5352675173488081</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5353051726312146</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.535293460066863</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.5352855946617442</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.5352804507407473</v>
+        <v>0.5353464973848361</v>
       </c>
     </row>
     <row r="59">
@@ -1424,16 +902,7 @@
         <v>0.535484210044988</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5355078835487457</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0.5354945052776413</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.5354858041056401</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0.5354799105091692</v>
+        <v>0.5355393507226258</v>
       </c>
     </row>
     <row r="60">
@@ -1441,16 +910,7 @@
         <v>0.5357176239622947</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5357200628240389</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0.5357115927260062</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.5357052484547079</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0.5357008208392067</v>
+        <v>0.535736679885471</v>
       </c>
     </row>
     <row r="61">
@@ -1458,16 +918,7 @@
         <v>0.5362016345600057</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5362023838773972</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0.5361994301113203</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.5361974335568869</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0.5361960717004352</v>
+        <v>0.5362340537436271</v>
       </c>
     </row>
     <row r="62">
@@ -1475,16 +926,7 @@
         <v>0.5352188131987513</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5351483928618295</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0.5351775926933409</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.5351864942917315</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0.535189267407688</v>
+        <v>0.535298755325384</v>
       </c>
     </row>
     <row r="63">
@@ -1492,16 +934,7 @@
         <v>0.5357317194514076</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5357189235523566</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0.5356850284790711</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.5356669307609326</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0.5356556677129767</v>
+        <v>0.5356776601287822</v>
       </c>
     </row>
     <row r="64">
@@ -1509,16 +942,7 @@
         <v>0.5354787935573763</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5354226549783535</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0.5354335551816609</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.5354384940433904</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0.5354398748356394</v>
+        <v>0.5355066909773206</v>
       </c>
     </row>
     <row r="65">
@@ -1526,16 +950,7 @@
         <v>0.5359241648692189</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5359703365268882</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0.5359545089382032</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.5359450169703363</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0.5359391381621429</v>
+        <v>0.5359699250337098</v>
       </c>
     </row>
     <row r="66">
@@ -1543,16 +958,7 @@
         <v>0.5355032427375516</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5354651848760292</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0.5354728220891831</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.5354706431145624</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0.5354675661505652</v>
+        <v>0.5355441520147581</v>
       </c>
     </row>
     <row r="67">
@@ -1560,16 +966,7 @@
         <v>0.5353970852637051</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5354869823890851</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0.5354760050864099</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.5354659821023975</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0.5354596090158065</v>
+        <v>0.5355403325821952</v>
       </c>
     </row>
     <row r="68">
@@ -1577,16 +974,7 @@
         <v>-0.9541426509527804</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.9652410829190664</v>
-      </c>
-      <c r="C68" t="n">
-        <v>-0.9728546548131117</v>
-      </c>
-      <c r="D68" t="n">
-        <v>-0.9785052595013641</v>
-      </c>
-      <c r="E68" t="n">
-        <v>-0.9830176074657234</v>
+        <v>-0.9485737275753878</v>
       </c>
     </row>
     <row r="69">
@@ -1594,16 +982,7 @@
         <v>-0.9703691267674527</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.9851632804691798</v>
-      </c>
-      <c r="C69" t="n">
-        <v>-0.991398915192787</v>
-      </c>
-      <c r="D69" t="n">
-        <v>-0.9965072783643824</v>
-      </c>
-      <c r="E69" t="n">
-        <v>-1.000770478641284</v>
+        <v>-0.9637842180445626</v>
       </c>
     </row>
     <row r="70">
@@ -1611,16 +990,7 @@
         <v>-0.9560522011343118</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.9638503426146271</v>
-      </c>
-      <c r="C70" t="n">
-        <v>-0.9728414798762193</v>
-      </c>
-      <c r="D70" t="n">
-        <v>-0.979448649411949</v>
-      </c>
-      <c r="E70" t="n">
-        <v>-0.9845495805542205</v>
+        <v>-0.9506771273116595</v>
       </c>
     </row>
     <row r="71">
@@ -1628,16 +998,7 @@
         <v>-0.9778373994084247</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.9818893890207588</v>
-      </c>
-      <c r="C71" t="n">
-        <v>-0.9884591470197078</v>
-      </c>
-      <c r="D71" t="n">
-        <v>-0.9934259109349953</v>
-      </c>
-      <c r="E71" t="n">
-        <v>-0.9974669789455837</v>
+        <v>-0.9605195727130115</v>
       </c>
     </row>
     <row r="72">
@@ -1645,16 +1006,7 @@
         <v>-0.98560904089344</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.9964187045654878</v>
-      </c>
-      <c r="C72" t="n">
-        <v>-1.00245906421476</v>
-      </c>
-      <c r="D72" t="n">
-        <v>-1.00711555880195</v>
-      </c>
-      <c r="E72" t="n">
-        <v>-1.011047973051107</v>
+        <v>-0.9775524291714411</v>
       </c>
     </row>
     <row r="73">
@@ -1662,16 +1014,7 @@
         <v>-0.9356164435411314</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.9444260091252856</v>
-      </c>
-      <c r="C73" t="n">
-        <v>-0.9539093888042932</v>
-      </c>
-      <c r="D73" t="n">
-        <v>-0.9606894535149672</v>
-      </c>
-      <c r="E73" t="n">
-        <v>-0.9658571087981642</v>
+        <v>-0.9339427354149028</v>
       </c>
     </row>
     <row r="74">
@@ -1679,16 +1022,7 @@
         <v>-0.9275962752087381</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.9335164318928372</v>
-      </c>
-      <c r="C74" t="n">
-        <v>-0.9431997954357079</v>
-      </c>
-      <c r="D74" t="n">
-        <v>-0.9502454687016224</v>
-      </c>
-      <c r="E74" t="n">
-        <v>-0.9555963680675478</v>
+        <v>-0.924809769802189</v>
       </c>
     </row>
     <row r="75">
@@ -1696,16 +1030,7 @@
         <v>-0.938675437524608</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.9547251800534184</v>
-      </c>
-      <c r="C75" t="n">
-        <v>-0.9624724691974196</v>
-      </c>
-      <c r="D75" t="n">
-        <v>-0.9683275282435567</v>
-      </c>
-      <c r="E75" t="n">
-        <v>-0.972945410466702</v>
+        <v>-0.9388663925362831</v>
       </c>
     </row>
     <row r="76">
@@ -1713,16 +1038,7 @@
         <v>-0.95493392883245</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.9699884778728153</v>
-      </c>
-      <c r="C76" t="n">
-        <v>-0.9760001632478078</v>
-      </c>
-      <c r="D76" t="n">
-        <v>-0.9812304761768698</v>
-      </c>
-      <c r="E76" t="n">
-        <v>-0.9855877291521723</v>
+        <v>-0.9474529951496509</v>
       </c>
     </row>
     <row r="77">
@@ -1730,16 +1046,7 @@
         <v>-0.9669514054405786</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.9763036643968234</v>
-      </c>
-      <c r="C77" t="n">
-        <v>-0.9856028711949116</v>
-      </c>
-      <c r="D77" t="n">
-        <v>-0.9921476379461611</v>
-      </c>
-      <c r="E77" t="n">
-        <v>-0.9971693708830531</v>
+        <v>-0.963429224205443</v>
       </c>
     </row>
     <row r="78">
@@ -1747,16 +1054,7 @@
         <v>-0.9827814918618243</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.9795590335165574</v>
-      </c>
-      <c r="C78" t="n">
-        <v>-0.9879449760909363</v>
-      </c>
-      <c r="D78" t="n">
-        <v>-0.9942344107823253</v>
-      </c>
-      <c r="E78" t="n">
-        <v>-0.999124518825143</v>
+        <v>-0.9708762492912151</v>
       </c>
     </row>
     <row r="79">
@@ -1764,16 +1062,7 @@
         <v>-0.9883439755546044</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.9927534225701725</v>
-      </c>
-      <c r="C79" t="n">
-        <v>-1.000536398425307</v>
-      </c>
-      <c r="D79" t="n">
-        <v>-1.00644406426682</v>
-      </c>
-      <c r="E79" t="n">
-        <v>-1.011165640384847</v>
+        <v>-0.9773519518540241</v>
       </c>
     </row>
     <row r="80">
@@ -1781,16 +1070,7 @@
         <v>-0.9705470356793094</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.9783912107825009</v>
-      </c>
-      <c r="C80" t="n">
-        <v>-0.9864201994029288</v>
-      </c>
-      <c r="D80" t="n">
-        <v>-0.9927229898268169</v>
-      </c>
-      <c r="E80" t="n">
-        <v>-0.9977166110712639</v>
+        <v>-0.964818758043486</v>
       </c>
     </row>
     <row r="81">
@@ -1798,16 +1078,7 @@
         <v>-0.9748999342246099</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.9832090742420981</v>
-      </c>
-      <c r="C81" t="n">
-        <v>-0.9879329534936444</v>
-      </c>
-      <c r="D81" t="n">
-        <v>-0.9923603880955648</v>
-      </c>
-      <c r="E81" t="n">
-        <v>-0.996233050183515</v>
+        <v>-0.960815604298644</v>
       </c>
     </row>
     <row r="82">
@@ -1815,16 +1086,7 @@
         <v>-0.9811216409941514</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.9813170658096284</v>
-      </c>
-      <c r="C82" t="n">
-        <v>-0.990856334437944</v>
-      </c>
-      <c r="D82" t="n">
-        <v>-0.9973703643066618</v>
-      </c>
-      <c r="E82" t="n">
-        <v>-1.002346312467902</v>
+        <v>-0.9779504951813082</v>
       </c>
     </row>
     <row r="83">
@@ -1832,16 +1094,7 @@
         <v>-0.9843267765245145</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.9854307188050262</v>
-      </c>
-      <c r="C83" t="n">
-        <v>-0.9924368730349095</v>
-      </c>
-      <c r="D83" t="n">
-        <v>-0.9980610985488592</v>
-      </c>
-      <c r="E83" t="n">
-        <v>-1.002617964958904</v>
+        <v>-0.9705093137811703</v>
       </c>
     </row>
     <row r="84">
@@ -1849,16 +1102,7 @@
         <v>-0.9705520579955889</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.9803026772483698</v>
-      </c>
-      <c r="C84" t="n">
-        <v>-0.9889788584430171</v>
-      </c>
-      <c r="D84" t="n">
-        <v>-0.9955697676463811</v>
-      </c>
-      <c r="E84" t="n">
-        <v>-1.000711744404739</v>
+        <v>-0.9662998681627709</v>
       </c>
     </row>
     <row r="85">
@@ -1866,16 +1110,7 @@
         <v>-0.9760208856156282</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.9792627274219899</v>
-      </c>
-      <c r="C85" t="n">
-        <v>-0.9882059269160308</v>
-      </c>
-      <c r="D85" t="n">
-        <v>-0.9949350591866118</v>
-      </c>
-      <c r="E85" t="n">
-        <v>-1.000124763716286</v>
+        <v>-0.9680217580401596</v>
       </c>
     </row>
     <row r="86">
@@ -1883,16 +1118,7 @@
         <v>-1.000952902257854</v>
       </c>
       <c r="B86" t="n">
-        <v>-1.003960005123682</v>
-      </c>
-      <c r="C86" t="n">
-        <v>-1.009804881457856</v>
-      </c>
-      <c r="D86" t="n">
-        <v>-1.01494518298477</v>
-      </c>
-      <c r="E86" t="n">
-        <v>-1.019248997829661</v>
+        <v>-0.9874127132928289</v>
       </c>
     </row>
     <row r="87">
@@ -1900,16 +1126,7 @@
         <v>-0.9699788487713963</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.9749909065074338</v>
-      </c>
-      <c r="C87" t="n">
-        <v>-0.98299794531078</v>
-      </c>
-      <c r="D87" t="n">
-        <v>-0.9891229104124721</v>
-      </c>
-      <c r="E87" t="n">
-        <v>-0.9939365623012202</v>
+        <v>-0.963652688304627</v>
       </c>
     </row>
     <row r="88">
@@ -1917,16 +1134,7 @@
         <v>-1.119955832710431</v>
       </c>
       <c r="B88" t="n">
-        <v>-1.041381492374526</v>
-      </c>
-      <c r="C88" t="n">
-        <v>-1.028763205796435</v>
-      </c>
-      <c r="D88" t="n">
-        <v>-1.048604635880344</v>
-      </c>
-      <c r="E88" t="n">
-        <v>-1.074168196894179</v>
+        <v>-0.990163486356969</v>
       </c>
     </row>
     <row r="89">
@@ -1934,16 +1142,7 @@
         <v>-3.051351912632339</v>
       </c>
       <c r="B89" t="n">
-        <v>-3.709115171465733</v>
-      </c>
-      <c r="C89" t="n">
-        <v>-3.600922811211759</v>
-      </c>
-      <c r="D89" t="n">
-        <v>-3.524853894749652</v>
-      </c>
-      <c r="E89" t="n">
-        <v>-3.484413912990925</v>
+        <v>-3.14281243849154</v>
       </c>
     </row>
     <row r="90">
@@ -1951,16 +1150,7 @@
         <v>-1.03711976323315</v>
       </c>
       <c r="B90" t="n">
-        <v>-1.010873305803971</v>
-      </c>
-      <c r="C90" t="n">
-        <v>-1.025368339116174</v>
-      </c>
-      <c r="D90" t="n">
-        <v>-1.04229959102658</v>
-      </c>
-      <c r="E90" t="n">
-        <v>-1.056485671194695</v>
+        <v>-1.0598728923876</v>
       </c>
     </row>
     <row r="91">
@@ -1968,16 +1158,7 @@
         <v>-5.86349020374386</v>
       </c>
       <c r="B91" t="n">
-        <v>-4.492315927709726</v>
-      </c>
-      <c r="C91" t="n">
-        <v>-4.807410385030456</v>
-      </c>
-      <c r="D91" t="n">
-        <v>-4.970007494619505</v>
-      </c>
-      <c r="E91" t="n">
-        <v>-5.061811446377591</v>
+        <v>-5.600165075996783</v>
       </c>
     </row>
     <row r="92">
@@ -1985,16 +1166,7 @@
         <v>-0.2999023201985853</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.6325314995006609</v>
-      </c>
-      <c r="C92" t="n">
-        <v>-0.6409905448372759</v>
-      </c>
-      <c r="D92" t="n">
-        <v>-0.6646144225106574</v>
-      </c>
-      <c r="E92" t="n">
-        <v>-0.6876612909348295</v>
+        <v>-0.552776124039314</v>
       </c>
     </row>
     <row r="93">
@@ -2002,16 +1174,7 @@
         <v>-0.8057557701780731</v>
       </c>
       <c r="B93" t="n">
-        <v>-1.217334101888565</v>
-      </c>
-      <c r="C93" t="n">
-        <v>-1.01992673064733</v>
-      </c>
-      <c r="D93" t="n">
-        <v>-0.9988373905889856</v>
-      </c>
-      <c r="E93" t="n">
-        <v>-1.009794970711344</v>
+        <v>-0.7436132897784327</v>
       </c>
     </row>
     <row r="94">
@@ -2019,16 +1182,7 @@
         <v>-1.150235911830865</v>
       </c>
       <c r="B94" t="n">
-        <v>-1.214513646690466</v>
-      </c>
-      <c r="C94" t="n">
-        <v>-1.221483070241428</v>
-      </c>
-      <c r="D94" t="n">
-        <v>-1.230013454012946</v>
-      </c>
-      <c r="E94" t="n">
-        <v>-1.238383194887875</v>
+        <v>-1.188987404026291</v>
       </c>
     </row>
     <row r="95">
@@ -2036,16 +1190,7 @@
         <v>-0.05391919943917078</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.5725666731592312</v>
-      </c>
-      <c r="C95" t="n">
-        <v>-0.7774686130967859</v>
-      </c>
-      <c r="D95" t="n">
-        <v>-0.8713249095991873</v>
-      </c>
-      <c r="E95" t="n">
-        <v>-0.9257352917198258</v>
+        <v>-0.2850630618590215</v>
       </c>
     </row>
     <row r="96">
@@ -2053,16 +1198,7 @@
         <v>-1.427072252014387</v>
       </c>
       <c r="B96" t="n">
-        <v>-1.389629592190633</v>
-      </c>
-      <c r="C96" t="n">
-        <v>-1.445880494350905</v>
-      </c>
-      <c r="D96" t="n">
-        <v>-1.472109523943189</v>
-      </c>
-      <c r="E96" t="n">
-        <v>-1.490853354541236</v>
+        <v>-1.463443649993773</v>
       </c>
     </row>
   </sheetData>

--- a/PCAcombined_predicted_variables_matrix_6.xlsx
+++ b/PCAcombined_predicted_variables_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B96"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,6 +440,12 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -448,6 +454,12 @@
       <c r="B2" t="n">
         <v>0.5358275924482448</v>
       </c>
+      <c r="C2" t="n">
+        <v>0.5358887291647676</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5359641565383392</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -456,6 +468,12 @@
       <c r="B3" t="n">
         <v>0.5361150179884303</v>
       </c>
+      <c r="C3" t="n">
+        <v>0.5361747026102823</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.536248260288628</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -464,6 +482,12 @@
       <c r="B4" t="n">
         <v>0.5361249845537117</v>
       </c>
+      <c r="C4" t="n">
+        <v>0.5361831861014034</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5362552889789253</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -472,6 +496,12 @@
       <c r="B5" t="n">
         <v>0.5359329851306901</v>
       </c>
+      <c r="C5" t="n">
+        <v>0.5359940506663043</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5360684061619873</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -480,6 +510,12 @@
       <c r="B6" t="n">
         <v>0.5360817435313283</v>
       </c>
+      <c r="C6" t="n">
+        <v>0.5361406676382088</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5362134381269066</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -488,6 +524,12 @@
       <c r="B7" t="n">
         <v>0.5357660447440977</v>
       </c>
+      <c r="C7" t="n">
+        <v>0.5358203558648932</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5358901234572583</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -496,6 +538,12 @@
       <c r="B8" t="n">
         <v>0.5359352806342531</v>
       </c>
+      <c r="C8" t="n">
+        <v>0.5359836203529206</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5360487615840164</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -504,6 +552,12 @@
       <c r="B9" t="n">
         <v>0.5358168818934209</v>
       </c>
+      <c r="C9" t="n">
+        <v>0.535868106883409</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5359353425194507</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -512,6 +566,12 @@
       <c r="B10" t="n">
         <v>0.5362500883400989</v>
       </c>
+      <c r="C10" t="n">
+        <v>0.536297289548471</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5363624346159781</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -520,6 +580,12 @@
       <c r="B11" t="n">
         <v>0.5358761725005835</v>
       </c>
+      <c r="C11" t="n">
+        <v>0.5359331950246127</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.536004407528536</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -528,6 +594,12 @@
       <c r="B12" t="n">
         <v>0.5359164179006936</v>
       </c>
+      <c r="C12" t="n">
+        <v>0.5359775901981283</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5360519243363215</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -536,6 +608,12 @@
       <c r="B13" t="n">
         <v>0.5359787617394612</v>
       </c>
+      <c r="C13" t="n">
+        <v>0.5360297570710011</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5360967671250839</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -544,6 +622,12 @@
       <c r="B14" t="n">
         <v>0.5359958617491806</v>
       </c>
+      <c r="C14" t="n">
+        <v>0.5360537552611735</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.5361259414705658</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -552,6 +636,12 @@
       <c r="B15" t="n">
         <v>0.5359137089064646</v>
       </c>
+      <c r="C15" t="n">
+        <v>0.5359702015748583</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.5360419413758576</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -560,6 +650,12 @@
       <c r="B16" t="n">
         <v>0.5361724783884037</v>
       </c>
+      <c r="C16" t="n">
+        <v>0.5362237003364319</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.5362916229198226</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -568,6 +664,12 @@
       <c r="B17" t="n">
         <v>0.5361887471147611</v>
       </c>
+      <c r="C17" t="n">
+        <v>0.5362534196628154</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.5363324609980121</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -576,6 +678,12 @@
       <c r="B18" t="n">
         <v>0.5358705019832982</v>
       </c>
+      <c r="C18" t="n">
+        <v>0.5359296961239827</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.5360040683205666</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -584,6 +692,12 @@
       <c r="B19" t="n">
         <v>0.5361547656884866</v>
       </c>
+      <c r="C19" t="n">
+        <v>0.5362154673083761</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.5362897303790359</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -592,6 +706,12 @@
       <c r="B20" t="n">
         <v>0.5361016795821112</v>
       </c>
+      <c r="C20" t="n">
+        <v>0.5361551578195677</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.5362248928483899</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -600,6 +720,12 @@
       <c r="B21" t="n">
         <v>0.5362771420588576</v>
       </c>
+      <c r="C21" t="n">
+        <v>0.5363305645965594</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.5363996293667693</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -608,6 +734,12 @@
       <c r="B22" t="n">
         <v>0.5361121196775841</v>
       </c>
+      <c r="C22" t="n">
+        <v>0.536170139722843</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.5362431908166185</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -616,6 +748,12 @@
       <c r="B23" t="n">
         <v>0.5358530033913906</v>
       </c>
+      <c r="C23" t="n">
+        <v>0.535914351102578</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.5359890640416001</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -624,6 +762,12 @@
       <c r="B24" t="n">
         <v>0.5363544105530792</v>
       </c>
+      <c r="C24" t="n">
+        <v>0.5364907318485265</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.5366299048556507</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -632,6 +776,12 @@
       <c r="B25" t="n">
         <v>0.53618310807815</v>
       </c>
+      <c r="C25" t="n">
+        <v>0.536227198124553</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.5362918609365608</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -640,6 +790,12 @@
       <c r="B26" t="n">
         <v>0.5359877763167327</v>
       </c>
+      <c r="C26" t="n">
+        <v>0.5360613707918234</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.5361454808206052</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -648,6 +804,12 @@
       <c r="B27" t="n">
         <v>0.535974860618901</v>
       </c>
+      <c r="C27" t="n">
+        <v>0.5360275672893071</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.5360989801592215</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -656,6 +818,12 @@
       <c r="B28" t="n">
         <v>0.5363973586223594</v>
       </c>
+      <c r="C28" t="n">
+        <v>0.5364620170116587</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.5365423945071328</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -664,6 +832,12 @@
       <c r="B29" t="n">
         <v>0.5366698004937012</v>
       </c>
+      <c r="C29" t="n">
+        <v>0.5367705092179165</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.536887329349731</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -672,6 +846,12 @@
       <c r="B30" t="n">
         <v>0.5363273536006191</v>
       </c>
+      <c r="C30" t="n">
+        <v>0.5363866046173785</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.5364641437065009</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -680,6 +860,12 @@
       <c r="B31" t="n">
         <v>0.5357282149125349</v>
       </c>
+      <c r="C31" t="n">
+        <v>0.5357770104131845</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.5358442895985799</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -688,6 +874,12 @@
       <c r="B32" t="n">
         <v>0.536328062817478</v>
       </c>
+      <c r="C32" t="n">
+        <v>0.5363746841583548</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.5364407608967965</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -696,6 +888,12 @@
       <c r="B33" t="n">
         <v>0.5364598749404829</v>
       </c>
+      <c r="C33" t="n">
+        <v>0.5365062409979683</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.5365719380649556</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -704,6 +902,12 @@
       <c r="B34" t="n">
         <v>0.5354985876200913</v>
       </c>
+      <c r="C34" t="n">
+        <v>0.5355451025467031</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.5356110620223747</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -712,6 +916,12 @@
       <c r="B35" t="n">
         <v>0.5364716700193404</v>
       </c>
+      <c r="C35" t="n">
+        <v>0.5365270472163798</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.5365984344023946</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -720,6 +930,12 @@
       <c r="B36" t="n">
         <v>0.5364701419428349</v>
       </c>
+      <c r="C36" t="n">
+        <v>0.536521169878727</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.5365894913596729</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -728,6 +944,12 @@
       <c r="B37" t="n">
         <v>0.5364640914837284</v>
       </c>
+      <c r="C37" t="n">
+        <v>0.5365116722546684</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.5365771731483989</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -736,6 +958,12 @@
       <c r="B38" t="n">
         <v>0.5363772473780042</v>
       </c>
+      <c r="C38" t="n">
+        <v>0.5364315991078322</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.5365023940051825</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -744,6 +972,12 @@
       <c r="B39" t="n">
         <v>0.5363788503319821</v>
       </c>
+      <c r="C39" t="n">
+        <v>0.5364272083765912</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.5364932106882897</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -752,6 +986,12 @@
       <c r="B40" t="n">
         <v>0.5364749562479464</v>
       </c>
+      <c r="C40" t="n">
+        <v>0.5365237924405485</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.5365898763970804</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -760,6 +1000,12 @@
       <c r="B41" t="n">
         <v>0.536323675873941</v>
       </c>
+      <c r="C41" t="n">
+        <v>0.5363803453550828</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.5364523103568146</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -768,6 +1014,12 @@
       <c r="B42" t="n">
         <v>0.5363827079831571</v>
       </c>
+      <c r="C42" t="n">
+        <v>0.5364348658764978</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.5365042701114717</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -776,6 +1028,12 @@
       <c r="B43" t="n">
         <v>0.5364058112598739</v>
       </c>
+      <c r="C43" t="n">
+        <v>0.536457537686614</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.5365264149524753</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -784,6 +1042,12 @@
       <c r="B44" t="n">
         <v>0.5364322423189128</v>
       </c>
+      <c r="C44" t="n">
+        <v>0.5364815174427486</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.5365482909771027</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -792,6 +1056,12 @@
       <c r="B45" t="n">
         <v>0.5364695818813708</v>
       </c>
+      <c r="C45" t="n">
+        <v>0.5365122347214714</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.5365743444151888</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -800,6 +1070,12 @@
       <c r="B46" t="n">
         <v>0.5352504340253695</v>
       </c>
+      <c r="C46" t="n">
+        <v>0.5353001025176178</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.5353663098583381</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -808,6 +1084,12 @@
       <c r="B47" t="n">
         <v>0.5354209888858924</v>
       </c>
+      <c r="C47" t="n">
+        <v>0.5354697649065293</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.5355355997649792</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -816,6 +1098,12 @@
       <c r="B48" t="n">
         <v>0.5355069414979653</v>
       </c>
+      <c r="C48" t="n">
+        <v>0.5355569098303088</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.535623405272315</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -824,6 +1112,12 @@
       <c r="B49" t="n">
         <v>0.5356370547568005</v>
       </c>
+      <c r="C49" t="n">
+        <v>0.5356882486217532</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.5357557284105982</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -832,6 +1126,12 @@
       <c r="B50" t="n">
         <v>0.5359630740994846</v>
       </c>
+      <c r="C50" t="n">
+        <v>0.5360160819161266</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.5360851022703071</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -840,6 +1140,12 @@
       <c r="B51" t="n">
         <v>0.5355137074597708</v>
       </c>
+      <c r="C51" t="n">
+        <v>0.5355637863068985</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.5356305005153208</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -848,6 +1154,12 @@
       <c r="B52" t="n">
         <v>0.5355137074597708</v>
       </c>
+      <c r="C52" t="n">
+        <v>0.5355637863068985</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.5356305005153208</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -856,6 +1168,12 @@
       <c r="B53" t="n">
         <v>0.5353575905907345</v>
       </c>
+      <c r="C53" t="n">
+        <v>0.5354060307381054</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.5354716500877081</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -864,6 +1182,12 @@
       <c r="B54" t="n">
         <v>0.5359092971685701</v>
       </c>
+      <c r="C54" t="n">
+        <v>0.5359603498409082</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.5360279666232558</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -872,6 +1196,12 @@
       <c r="B55" t="n">
         <v>0.5354078132044959</v>
       </c>
+      <c r="C55" t="n">
+        <v>0.5354576242705535</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.5355238812048991</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -880,6 +1210,12 @@
       <c r="B56" t="n">
         <v>0.5354700399779958</v>
       </c>
+      <c r="C56" t="n">
+        <v>0.5355201384388386</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.5355866635209761</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -888,6 +1224,12 @@
       <c r="B57" t="n">
         <v>0.5354454454949005</v>
       </c>
+      <c r="C57" t="n">
+        <v>0.5354921198536</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.5355565006821804</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -896,6 +1238,12 @@
       <c r="B58" t="n">
         <v>0.5353464973848361</v>
       </c>
+      <c r="C58" t="n">
+        <v>0.5353956925761549</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.5354614252836036</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -904,6 +1252,12 @@
       <c r="B59" t="n">
         <v>0.5355393507226258</v>
       </c>
+      <c r="C59" t="n">
+        <v>0.5355895307209604</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.5356559967848081</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -912,6 +1266,12 @@
       <c r="B60" t="n">
         <v>0.535736679885471</v>
       </c>
+      <c r="C60" t="n">
+        <v>0.5357886125043949</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.5358565270311639</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -920,6 +1280,12 @@
       <c r="B61" t="n">
         <v>0.5362340537436271</v>
       </c>
+      <c r="C61" t="n">
+        <v>0.5362844274481048</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.5363517767393099</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -928,6 +1294,12 @@
       <c r="B62" t="n">
         <v>0.535298755325384</v>
       </c>
+      <c r="C62" t="n">
+        <v>0.5353434601355792</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.5354057633417387</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -936,6 +1308,12 @@
       <c r="B63" t="n">
         <v>0.5356776601287822</v>
       </c>
+      <c r="C63" t="n">
+        <v>0.5357273239898326</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.5357932072182345</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -944,6 +1322,12 @@
       <c r="B64" t="n">
         <v>0.5355066909773206</v>
       </c>
+      <c r="C64" t="n">
+        <v>0.535556095181424</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.5356221968537198</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -952,6 +1336,12 @@
       <c r="B65" t="n">
         <v>0.5359699250337098</v>
       </c>
+      <c r="C65" t="n">
+        <v>0.5360226628379674</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.5360913721779562</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -960,6 +1350,12 @@
       <c r="B66" t="n">
         <v>0.5355441520147581</v>
       </c>
+      <c r="C66" t="n">
+        <v>0.5355894916077208</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.5356521833826072</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -968,6 +1364,12 @@
       <c r="B67" t="n">
         <v>0.5355403325821952</v>
       </c>
+      <c r="C67" t="n">
+        <v>0.5355881114073002</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.5356529307118655</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -976,6 +1378,12 @@
       <c r="B68" t="n">
         <v>-0.9485737275753878</v>
       </c>
+      <c r="C68" t="n">
+        <v>-0.9501241857244054</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-0.9527191720801214</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -984,6 +1392,12 @@
       <c r="B69" t="n">
         <v>-0.9637842180445626</v>
       </c>
+      <c r="C69" t="n">
+        <v>-0.9656895716063242</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-0.9685369563961614</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -992,6 +1406,12 @@
       <c r="B70" t="n">
         <v>-0.9506771273116595</v>
       </c>
+      <c r="C70" t="n">
+        <v>-0.9523235130135272</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-0.9550181505698876</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1000,6 +1420,12 @@
       <c r="B71" t="n">
         <v>-0.9605195727130115</v>
       </c>
+      <c r="C71" t="n">
+        <v>-0.9618354255740099</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-0.964189239646885</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1008,6 +1434,12 @@
       <c r="B72" t="n">
         <v>-0.9775524291714411</v>
       </c>
+      <c r="C72" t="n">
+        <v>-0.9785326984208075</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-0.9806746570747253</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1016,6 +1448,12 @@
       <c r="B73" t="n">
         <v>-0.9339427354149028</v>
       </c>
+      <c r="C73" t="n">
+        <v>-0.9355017584495522</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-0.9380990413536477</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1024,6 +1462,12 @@
       <c r="B74" t="n">
         <v>-0.924809769802189</v>
       </c>
+      <c r="C74" t="n">
+        <v>-0.9260991321496285</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-0.9285215460372911</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -1032,6 +1476,12 @@
       <c r="B75" t="n">
         <v>-0.9388663925362831</v>
       </c>
+      <c r="C75" t="n">
+        <v>-0.9406283197287192</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-0.9433129911846946</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1040,6 +1490,12 @@
       <c r="B76" t="n">
         <v>-0.9474529951496509</v>
       </c>
+      <c r="C76" t="n">
+        <v>-0.9497892668103677</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-0.9529354258783628</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1048,6 +1504,12 @@
       <c r="B77" t="n">
         <v>-0.963429224205443</v>
       </c>
+      <c r="C77" t="n">
+        <v>-0.9650375041504144</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-0.9676920878825638</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -1056,6 +1518,12 @@
       <c r="B78" t="n">
         <v>-0.9708762492912151</v>
       </c>
+      <c r="C78" t="n">
+        <v>-0.9709338329713529</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-0.9724906876051201</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -1064,6 +1532,12 @@
       <c r="B79" t="n">
         <v>-0.9773519518540241</v>
       </c>
+      <c r="C79" t="n">
+        <v>-0.9784585851160708</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-0.9807283687905054</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -1072,6 +1546,12 @@
       <c r="B80" t="n">
         <v>-0.964818758043486</v>
       </c>
+      <c r="C80" t="n">
+        <v>-0.9659856393158865</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-0.9683831718818111</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -1080,6 +1560,12 @@
       <c r="B81" t="n">
         <v>-0.960815604298644</v>
       </c>
+      <c r="C81" t="n">
+        <v>-0.9619404334741588</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-0.9642267650541854</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -1088,6 +1574,12 @@
       <c r="B82" t="n">
         <v>-0.9779504951813082</v>
       </c>
+      <c r="C82" t="n">
+        <v>-0.9774887867830223</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-0.9786525397194875</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -1096,6 +1588,12 @@
       <c r="B83" t="n">
         <v>-0.9705093137811703</v>
       </c>
+      <c r="C83" t="n">
+        <v>-0.9712625491779909</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-0.9732871567080699</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -1104,6 +1602,12 @@
       <c r="B84" t="n">
         <v>-0.9662998681627709</v>
       </c>
+      <c r="C84" t="n">
+        <v>-0.9678859073096324</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-0.9705769332328703</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -1112,6 +1616,12 @@
       <c r="B85" t="n">
         <v>-0.9680217580401596</v>
       </c>
+      <c r="C85" t="n">
+        <v>-0.9691882732179021</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-0.9715660288619214</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -1120,6 +1630,12 @@
       <c r="B86" t="n">
         <v>-0.9874127132928289</v>
       </c>
+      <c r="C86" t="n">
+        <v>-0.9877060314675503</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-0.9894316235970025</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -1128,6 +1644,12 @@
       <c r="B87" t="n">
         <v>-0.963652688304627</v>
       </c>
+      <c r="C87" t="n">
+        <v>-0.9643485770499668</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-0.9663758339398677</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -1136,6 +1658,12 @@
       <c r="B88" t="n">
         <v>-0.990163486356969</v>
       </c>
+      <c r="C88" t="n">
+        <v>-0.9962536554847123</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-1.00790449691128</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -1144,6 +1672,12 @@
       <c r="B89" t="n">
         <v>-3.14281243849154</v>
       </c>
+      <c r="C89" t="n">
+        <v>-3.204716940533766</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-3.252620191817923</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -1152,6 +1686,12 @@
       <c r="B90" t="n">
         <v>-1.0598728923876</v>
       </c>
+      <c r="C90" t="n">
+        <v>-1.057295235018024</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-1.05953584030042</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -1160,6 +1700,12 @@
       <c r="B91" t="n">
         <v>-5.600165075996783</v>
       </c>
+      <c r="C91" t="n">
+        <v>-5.438216548190254</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-5.340022522744606</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -1168,6 +1714,12 @@
       <c r="B92" t="n">
         <v>-0.552776124039314</v>
       </c>
+      <c r="C92" t="n">
+        <v>-0.5976316551987204</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-0.6342327319870329</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -1176,6 +1728,12 @@
       <c r="B93" t="n">
         <v>-0.7436132897784327</v>
       </c>
+      <c r="C93" t="n">
+        <v>-0.7859918987960979</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-0.8366734602167626</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -1184,6 +1742,12 @@
       <c r="B94" t="n">
         <v>-1.188987404026291</v>
       </c>
+      <c r="C94" t="n">
+        <v>-1.193332083323186</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-1.199108892517338</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -1192,6 +1756,12 @@
       <c r="B95" t="n">
         <v>-0.2850630618590215</v>
       </c>
+      <c r="C95" t="n">
+        <v>-0.4682179141474144</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-0.6009459171542133</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -1199,6 +1769,12 @@
       </c>
       <c r="B96" t="n">
         <v>-1.463443649993773</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-1.464005758650329</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-1.469501272695336</v>
       </c>
     </row>
   </sheetData>
